--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H2">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I2">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J2">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N2">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O2">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P2">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q2">
-        <v>316.6068863070505</v>
+        <v>320.0759670920939</v>
       </c>
       <c r="R2">
-        <v>316.6068863070505</v>
+        <v>1280.303868368376</v>
       </c>
       <c r="S2">
-        <v>0.04027855157501475</v>
+        <v>0.03800542478411448</v>
       </c>
       <c r="T2">
-        <v>0.04027855157501475</v>
+        <v>0.01969169699802743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H3">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I3">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J3">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N3">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P3">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q3">
-        <v>3.390620402020008</v>
+        <v>3.536983342214</v>
       </c>
       <c r="R3">
-        <v>3.390620402020008</v>
+        <v>21.221900053284</v>
       </c>
       <c r="S3">
-        <v>0.000431352837353048</v>
+        <v>0.0004199770310668238</v>
       </c>
       <c r="T3">
-        <v>0.000431352837353048</v>
+        <v>0.0003264031577942962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H4">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I4">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J4">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N4">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O4">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P4">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q4">
-        <v>317.9516942101126</v>
+        <v>331.742013732116</v>
       </c>
       <c r="R4">
-        <v>317.9516942101126</v>
+        <v>1990.452082392696</v>
       </c>
       <c r="S4">
-        <v>0.04044963728674321</v>
+        <v>0.03939063674530417</v>
       </c>
       <c r="T4">
-        <v>0.04044963728674321</v>
+        <v>0.03061412236887205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H5">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I5">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J5">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N5">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O5">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P5">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q5">
-        <v>443.9311795992098</v>
+        <v>445.539111778216</v>
       </c>
       <c r="R5">
-        <v>443.9311795992098</v>
+        <v>2673.234670669297</v>
       </c>
       <c r="S5">
-        <v>0.05647667718731396</v>
+        <v>0.05290276353737029</v>
       </c>
       <c r="T5">
-        <v>0.05647667718731396</v>
+        <v>0.04111565108877373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H6">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I6">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J6">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N6">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O6">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P6">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q6">
-        <v>181.1354089341093</v>
+        <v>188.4289442451</v>
       </c>
       <c r="R6">
-        <v>181.1354089341093</v>
+        <v>1130.5736654706</v>
       </c>
       <c r="S6">
-        <v>0.0230439457458239</v>
+        <v>0.02237381998004478</v>
       </c>
       <c r="T6">
-        <v>0.0230439457458239</v>
+        <v>0.01738877355948961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.20821661142095</v>
+        <v>6.223902</v>
       </c>
       <c r="H7">
-        <v>6.20821661142095</v>
+        <v>12.447804</v>
       </c>
       <c r="I7">
-        <v>0.1647585933783495</v>
+        <v>0.1573600023520094</v>
       </c>
       <c r="J7">
-        <v>0.1647585933783495</v>
+        <v>0.111347698879666</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.16383705338908</v>
+        <v>5.7743895</v>
       </c>
       <c r="N7">
-        <v>5.16383705338908</v>
+        <v>11.548779</v>
       </c>
       <c r="O7">
-        <v>0.02475396677328369</v>
+        <v>0.02711858293292922</v>
       </c>
       <c r="P7">
-        <v>0.02475396677328369</v>
+        <v>0.01985718365943388</v>
       </c>
       <c r="Q7">
-        <v>32.05821897352109</v>
+        <v>35.939234357829</v>
       </c>
       <c r="R7">
-        <v>32.05821897352109</v>
+        <v>143.756937431316</v>
       </c>
       <c r="S7">
-        <v>0.00407842874610062</v>
+        <v>0.004267380274108904</v>
       </c>
       <c r="T7">
-        <v>0.00407842874610062</v>
+        <v>0.002211051706708868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H8">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I8">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J8">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N8">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O8">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P8">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q8">
-        <v>37.46803080271191</v>
+        <v>42.596538796821</v>
       </c>
       <c r="R8">
-        <v>37.46803080271191</v>
+        <v>255.579232780926</v>
       </c>
       <c r="S8">
-        <v>0.004766661991166127</v>
+        <v>0.005057860376128759</v>
       </c>
       <c r="T8">
-        <v>0.004766661991166127</v>
+        <v>0.003930933066166644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H9">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I9">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J9">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N9">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O9">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P9">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q9">
-        <v>0.4012542845956413</v>
+        <v>0.4707109050676667</v>
       </c>
       <c r="R9">
-        <v>0.4012542845956413</v>
+        <v>4.236398145609001</v>
       </c>
       <c r="S9">
-        <v>5.104734639633539E-05</v>
+        <v>5.589163116537386E-05</v>
       </c>
       <c r="T9">
-        <v>5.104734639633539E-05</v>
+        <v>6.515786658728986E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H10">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I10">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J10">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N10">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O10">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P10">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q10">
-        <v>37.62717864855755</v>
+        <v>44.14908650236067</v>
       </c>
       <c r="R10">
-        <v>37.62717864855755</v>
+        <v>397.3417785212461</v>
       </c>
       <c r="S10">
-        <v>0.00478690869139339</v>
+        <v>0.00524220797205326</v>
       </c>
       <c r="T10">
-        <v>0.00478690869139339</v>
+        <v>0.00611131005740775</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H11">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I11">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J11">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N11">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O11">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P11">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q11">
-        <v>52.53589808332928</v>
+        <v>59.29349908017734</v>
       </c>
       <c r="R11">
-        <v>52.53589808332928</v>
+        <v>533.6414917215961</v>
       </c>
       <c r="S11">
-        <v>0.006683587666621053</v>
+        <v>0.007040436806148145</v>
       </c>
       <c r="T11">
-        <v>0.006683587666621053</v>
+        <v>0.008207666023807975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H12">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I12">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J12">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N12">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O12">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P12">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q12">
-        <v>21.43600589540901</v>
+        <v>25.07661198965</v>
       </c>
       <c r="R12">
-        <v>21.43600589540901</v>
+        <v>225.68950790685</v>
       </c>
       <c r="S12">
-        <v>0.002727076719939697</v>
+        <v>0.002977565918089847</v>
       </c>
       <c r="T12">
-        <v>0.002727076719939697</v>
+        <v>0.003471214541434859</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.73469548922268</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H13">
-        <v>0.73469548922268</v>
+        <v>2.484879</v>
       </c>
       <c r="I13">
-        <v>0.01949793361640478</v>
+        <v>0.02094187672430462</v>
       </c>
       <c r="J13">
-        <v>0.01949793361640478</v>
+        <v>0.02222766028806411</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.16383705338908</v>
+        <v>5.7743895</v>
       </c>
       <c r="N13">
-        <v>5.16383705338908</v>
+        <v>11.548779</v>
       </c>
       <c r="O13">
-        <v>0.02475396677328369</v>
+        <v>0.02711858293292922</v>
       </c>
       <c r="P13">
-        <v>0.02475396677328369</v>
+        <v>0.01985718365943388</v>
       </c>
       <c r="Q13">
-        <v>3.793847790205892</v>
+        <v>4.7828864021235</v>
       </c>
       <c r="R13">
-        <v>3.793847790205892</v>
+        <v>28.697318412741</v>
       </c>
       <c r="S13">
-        <v>0.0004826512008881749</v>
+        <v>0.0005679140207192349</v>
       </c>
       <c r="T13">
-        <v>0.0004826512008881749</v>
+        <v>0.000441378732659594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H14">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I14">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J14">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N14">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O14">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P14">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q14">
-        <v>489.418505470381</v>
+        <v>553.129447583565</v>
       </c>
       <c r="R14">
-        <v>489.418505470381</v>
+        <v>3318.77668550139</v>
       </c>
       <c r="S14">
-        <v>0.06226354942651918</v>
+        <v>0.06567790705125771</v>
       </c>
       <c r="T14">
-        <v>0.06226354942651918</v>
+        <v>0.05104440165309852</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H15">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I15">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J15">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N15">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O15">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P15">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q15">
-        <v>5.24130220011914</v>
+        <v>6.112329082265001</v>
       </c>
       <c r="R15">
-        <v>5.24130220011914</v>
+        <v>55.01096174038501</v>
       </c>
       <c r="S15">
-        <v>0.0006667955439952027</v>
+        <v>0.0007257704016401173</v>
       </c>
       <c r="T15">
-        <v>0.0006667955439952027</v>
+        <v>0.000846095381670799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H16">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I16">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J16">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N16">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O16">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P16">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q16">
-        <v>491.4973417260874</v>
+        <v>573.2897676229101</v>
       </c>
       <c r="R16">
-        <v>491.4973417260874</v>
+        <v>5159.607908606191</v>
       </c>
       <c r="S16">
-        <v>0.06252801781606733</v>
+        <v>0.06807171853869923</v>
       </c>
       <c r="T16">
-        <v>0.06252801781606733</v>
+        <v>0.07935728234140257</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H17">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I17">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J17">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N17">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O17">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P17">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q17">
-        <v>686.2394466064719</v>
+        <v>769.9447259776601</v>
       </c>
       <c r="R17">
-        <v>686.2394466064719</v>
+        <v>6929.502533798942</v>
       </c>
       <c r="S17">
-        <v>0.08730299983476016</v>
+        <v>0.09142228526845364</v>
       </c>
       <c r="T17">
-        <v>0.08730299983476016</v>
+        <v>0.1065791236079988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H18">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I18">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J18">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N18">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O18">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P18">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q18">
-        <v>280.0034521116601</v>
+        <v>325.62769015725</v>
       </c>
       <c r="R18">
-        <v>280.0034521116601</v>
+        <v>2930.64921141525</v>
       </c>
       <c r="S18">
-        <v>0.03562188308223958</v>
+        <v>0.0386646295200774</v>
       </c>
       <c r="T18">
-        <v>0.03562188308223958</v>
+        <v>0.04507481208522965</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.596809883191639</v>
+        <v>10.755645</v>
       </c>
       <c r="H19">
-        <v>9.596809883191639</v>
+        <v>32.266935</v>
       </c>
       <c r="I19">
-        <v>0.254687778510389</v>
+        <v>0.2719368528774038</v>
       </c>
       <c r="J19">
-        <v>0.254687778510389</v>
+        <v>0.288633156671631</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.16383705338908</v>
+        <v>5.7743895</v>
       </c>
       <c r="N19">
-        <v>5.16383705338908</v>
+        <v>11.548779</v>
       </c>
       <c r="O19">
-        <v>0.02475396677328369</v>
+        <v>0.02711858293292922</v>
       </c>
       <c r="P19">
-        <v>0.02475396677328369</v>
+        <v>0.01985718365943388</v>
       </c>
       <c r="Q19">
-        <v>49.55636246915552</v>
+        <v>62.10728355372751</v>
       </c>
       <c r="R19">
-        <v>49.55636246915552</v>
+        <v>372.643701322365</v>
       </c>
       <c r="S19">
-        <v>0.006304532806807605</v>
+        <v>0.007374542097275645</v>
       </c>
       <c r="T19">
-        <v>0.006304532806807605</v>
+        <v>0.005731441602230731</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H20">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I20">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J20">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N20">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O20">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P20">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q20">
-        <v>822.8724934839731</v>
+        <v>846.6974720439059</v>
       </c>
       <c r="R20">
-        <v>822.8724934839731</v>
+        <v>5080.184832263436</v>
       </c>
       <c r="S20">
-        <v>0.1046853798887732</v>
+        <v>0.1005358114856708</v>
       </c>
       <c r="T20">
-        <v>0.1046853798887732</v>
+        <v>0.07813571674855166</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H21">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I21">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J21">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N21">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O21">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P21">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q21">
-        <v>8.812342325245575</v>
+        <v>9.356387740452666</v>
       </c>
       <c r="R21">
-        <v>8.812342325245575</v>
+        <v>84.207489664074</v>
       </c>
       <c r="S21">
-        <v>0.001121101277942055</v>
+        <v>0.001110965917720625</v>
       </c>
       <c r="T21">
-        <v>0.001121101277942055</v>
+        <v>0.001295152199721675</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H22">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I22">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J22">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N22">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O22">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P22">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q22">
-        <v>826.3676967796351</v>
+        <v>877.5576840385506</v>
       </c>
       <c r="R22">
-        <v>826.3676967796351</v>
+        <v>7898.019156346956</v>
       </c>
       <c r="S22">
-        <v>0.1051300377035528</v>
+        <v>0.1042001149210076</v>
       </c>
       <c r="T22">
-        <v>0.1051300377035528</v>
+        <v>0.1214753809262505</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H23">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I23">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J23">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N23">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O23">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P23">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q23">
-        <v>1153.792834239905</v>
+        <v>1178.585331059117</v>
       </c>
       <c r="R23">
-        <v>1153.792834239905</v>
+        <v>10607.26797953206</v>
       </c>
       <c r="S23">
-        <v>0.146784881159357</v>
+        <v>0.1399437657196548</v>
       </c>
       <c r="T23">
-        <v>0.146784881159357</v>
+        <v>0.1631449472194559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H24">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I24">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J24">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N24">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O24">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P24">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q24">
-        <v>470.777333198297</v>
+        <v>498.4513901549</v>
       </c>
       <c r="R24">
-        <v>470.777333198297</v>
+        <v>4486.0625113941</v>
       </c>
       <c r="S24">
-        <v>0.0598920298820842</v>
+        <v>0.05918550208306868</v>
       </c>
       <c r="T24">
-        <v>0.0598920298820842</v>
+        <v>0.06899782611854569</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.1353745103769</v>
+        <v>16.464098</v>
       </c>
       <c r="H25">
-        <v>16.1353745103769</v>
+        <v>49.392294</v>
       </c>
       <c r="I25">
-        <v>0.428213410445758</v>
+        <v>0.4162646680496759</v>
       </c>
       <c r="J25">
-        <v>0.428213410445758</v>
+        <v>0.4418223711819316</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.16383705338908</v>
+        <v>5.7743895</v>
       </c>
       <c r="N25">
-        <v>5.16383705338908</v>
+        <v>11.548779</v>
       </c>
       <c r="O25">
-        <v>0.02475396677328369</v>
+        <v>0.02711858293292922</v>
       </c>
       <c r="P25">
-        <v>0.02475396677328369</v>
+        <v>0.01985718365943388</v>
       </c>
       <c r="Q25">
-        <v>83.32044476699392</v>
+        <v>95.07011461817099</v>
       </c>
       <c r="R25">
-        <v>83.32044476699392</v>
+        <v>570.420687709026</v>
       </c>
       <c r="S25">
-        <v>0.01059998053404878</v>
+        <v>0.01128850792255339</v>
       </c>
       <c r="T25">
-        <v>0.01059998053404878</v>
+        <v>0.008773347969406183</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H26">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I26">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J26">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N26">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O26">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P26">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q26">
-        <v>228.530001774731</v>
+        <v>238.629664648583</v>
       </c>
       <c r="R26">
-        <v>228.530001774731</v>
+        <v>1431.777987891498</v>
       </c>
       <c r="S26">
-        <v>0.02907345942562567</v>
+        <v>0.0283345914829361</v>
       </c>
       <c r="T26">
-        <v>0.02907345942562567</v>
+        <v>0.02202144272354303</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H27">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I27">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J27">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N27">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O27">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P27">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q27">
-        <v>2.447383553557963</v>
+        <v>2.636965082034111</v>
       </c>
       <c r="R27">
-        <v>2.447383553557963</v>
+        <v>23.732685738307</v>
       </c>
       <c r="S27">
-        <v>0.0003113547713242903</v>
+        <v>0.0003131099750914699</v>
       </c>
       <c r="T27">
-        <v>0.0003113547713242903</v>
+        <v>0.0003650202643718669</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H28">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I28">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J28">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N28">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O28">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P28">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q28">
-        <v>229.5006975042465</v>
+        <v>247.3271773758731</v>
       </c>
       <c r="R28">
-        <v>229.5006975042465</v>
+        <v>2225.944596382858</v>
       </c>
       <c r="S28">
-        <v>0.02919695079519436</v>
+        <v>0.0293673233958285</v>
       </c>
       <c r="T28">
-        <v>0.02919695079519436</v>
+        <v>0.03423611191789038</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H29">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I29">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J29">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N29">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O29">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P29">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q29">
-        <v>320.4339439517952</v>
+        <v>332.1675469651009</v>
       </c>
       <c r="R29">
-        <v>320.4339439517952</v>
+        <v>2989.507922685908</v>
       </c>
       <c r="S29">
-        <v>0.04076542771508363</v>
+        <v>0.0394411640355168</v>
       </c>
       <c r="T29">
-        <v>0.04076542771508363</v>
+        <v>0.04598008772851366</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H30">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I30">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J30">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N30">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O30">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P30">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q30">
-        <v>130.7453410379495</v>
+        <v>140.4814494002833</v>
       </c>
       <c r="R30">
-        <v>130.7453410379495</v>
+        <v>1264.33304460255</v>
       </c>
       <c r="S30">
-        <v>0.01663334939936417</v>
+        <v>0.01668059369546377</v>
       </c>
       <c r="T30">
-        <v>0.01663334939936417</v>
+        <v>0.01944605795078599</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.48115254148327</v>
+        <v>4.640172333333333</v>
       </c>
       <c r="H31">
-        <v>4.48115254148327</v>
+        <v>13.920517</v>
       </c>
       <c r="I31">
-        <v>0.1189243925687725</v>
+        <v>0.1173182883160857</v>
       </c>
       <c r="J31">
-        <v>0.1189243925687725</v>
+        <v>0.1245213641832143</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.16383705338908</v>
+        <v>5.7743895</v>
       </c>
       <c r="N31">
-        <v>5.16383705338908</v>
+        <v>11.548779</v>
       </c>
       <c r="O31">
-        <v>0.02475396677328369</v>
+        <v>0.02711858293292922</v>
       </c>
       <c r="P31">
-        <v>0.02475396677328369</v>
+        <v>0.01985718365943388</v>
       </c>
       <c r="Q31">
-        <v>23.13994153559995</v>
+        <v>26.7941623997905</v>
       </c>
       <c r="R31">
-        <v>23.13994153559995</v>
+        <v>160.764974398743</v>
       </c>
       <c r="S31">
-        <v>0.002943850462180339</v>
+        <v>0.003181505731249071</v>
       </c>
       <c r="T31">
-        <v>0.002943850462180339</v>
+        <v>0.002472643598109338</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H32">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I32">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J32">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N32">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O32">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P32">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q32">
-        <v>26.74519243695207</v>
+        <v>32.9072742733965</v>
       </c>
       <c r="R32">
-        <v>26.74519243695207</v>
+        <v>131.629097093586</v>
       </c>
       <c r="S32">
-        <v>0.003402508472006911</v>
+        <v>0.003907369080565649</v>
       </c>
       <c r="T32">
-        <v>0.003402508472006911</v>
+        <v>0.002024519616108076</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H33">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I33">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J33">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N33">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O33">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P33">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q33">
-        <v>0.2864207920125125</v>
+        <v>0.3636401757998334</v>
       </c>
       <c r="R33">
-        <v>0.2864207920125125</v>
+        <v>2.181841054799</v>
       </c>
       <c r="S33">
-        <v>3.643829348690843E-05</v>
+        <v>4.317818508962369E-05</v>
       </c>
       <c r="T33">
-        <v>3.643829348690843E-05</v>
+        <v>3.355777797009406E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H34">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I34">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J34">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N34">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O34">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P34">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q34">
-        <v>26.85879434428156</v>
+        <v>34.10667015418434</v>
       </c>
       <c r="R34">
-        <v>26.85879434428156</v>
+        <v>204.640020925106</v>
       </c>
       <c r="S34">
-        <v>0.00341696084332695</v>
+        <v>0.004049783865242511</v>
       </c>
       <c r="T34">
-        <v>0.00341696084332695</v>
+        <v>0.003147463180645278</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H35">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I35">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J35">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N35">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O35">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P35">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q35">
-        <v>37.50084202410349</v>
+        <v>45.80624369899267</v>
       </c>
       <c r="R35">
-        <v>37.50084202410349</v>
+        <v>274.8374621939561</v>
       </c>
       <c r="S35">
-        <v>0.004770836216460072</v>
+        <v>0.005438976769674141</v>
       </c>
       <c r="T35">
-        <v>0.004770836216460072</v>
+        <v>0.00422713401321461</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H36">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I36">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J36">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N36">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O36">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P36">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q36">
-        <v>15.301313959389</v>
+        <v>19.372535231725</v>
       </c>
       <c r="R36">
-        <v>15.301313959389</v>
+        <v>116.23521139035</v>
       </c>
       <c r="S36">
-        <v>0.001946624631787165</v>
+        <v>0.002300270892925526</v>
       </c>
       <c r="T36">
-        <v>0.001946624631787165</v>
+        <v>0.001787754157235643</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.524435680788407</v>
+        <v>0.6398845000000001</v>
       </c>
       <c r="H37">
-        <v>0.524435680788407</v>
+        <v>1.279769</v>
       </c>
       <c r="I37">
-        <v>0.01391789148032617</v>
+        <v>0.01617831168052042</v>
       </c>
       <c r="J37">
-        <v>0.01391789148032617</v>
+        <v>0.01144774879549287</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.16383705338908</v>
+        <v>5.7743895</v>
       </c>
       <c r="N37">
-        <v>5.16383705338908</v>
+        <v>11.548779</v>
       </c>
       <c r="O37">
-        <v>0.02475396677328369</v>
+        <v>0.02711858293292922</v>
       </c>
       <c r="P37">
-        <v>0.02475396677328369</v>
+        <v>0.01985718365943388</v>
       </c>
       <c r="Q37">
-        <v>2.708100400574503</v>
+        <v>3.69494233801275</v>
       </c>
       <c r="R37">
-        <v>2.708100400574503</v>
+        <v>14.779769352051</v>
       </c>
       <c r="S37">
-        <v>0.0003445230232581621</v>
+        <v>0.0004387328870229705</v>
       </c>
       <c r="T37">
-        <v>0.0003445230232581621</v>
+        <v>0.0002273200503191648</v>
       </c>
     </row>
   </sheetData>
